--- a/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004615485317092</v>
+        <v>1.01135130848559</v>
       </c>
       <c r="D2">
-        <v>1.023833077613014</v>
+        <v>1.02983226033272</v>
       </c>
       <c r="E2">
-        <v>1.010066135623626</v>
+        <v>1.016213303603752</v>
       </c>
       <c r="F2">
-        <v>1.024194912631378</v>
+        <v>1.030494093459589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043902494045661</v>
+        <v>1.046985795683918</v>
       </c>
       <c r="J2">
-        <v>1.026659018959806</v>
+        <v>1.033197724761458</v>
       </c>
       <c r="K2">
-        <v>1.034970072394176</v>
+        <v>1.040891059052958</v>
       </c>
       <c r="L2">
-        <v>1.021386992110429</v>
+        <v>1.02745128955564</v>
       </c>
       <c r="M2">
-        <v>1.035327158557802</v>
+        <v>1.041544335317632</v>
       </c>
       <c r="N2">
-        <v>1.028116992526171</v>
+        <v>1.03466498404006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011055122258285</v>
+        <v>1.015461519037991</v>
       </c>
       <c r="D3">
-        <v>1.028880016709003</v>
+        <v>1.033020981364742</v>
       </c>
       <c r="E3">
-        <v>1.015378243915555</v>
+        <v>1.019478523308617</v>
       </c>
       <c r="F3">
-        <v>1.03007067621672</v>
+        <v>1.034364292140509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04577369142279</v>
+        <v>1.048180124674986</v>
       </c>
       <c r="J3">
-        <v>1.031248884143532</v>
+        <v>1.035539381572408</v>
       </c>
       <c r="K3">
-        <v>1.039156240729761</v>
+        <v>1.043248091417282</v>
       </c>
       <c r="L3">
-        <v>1.025818066956834</v>
+        <v>1.029868094419589</v>
       </c>
       <c r="M3">
-        <v>1.04033272827646</v>
+        <v>1.044575574418832</v>
       </c>
       <c r="N3">
-        <v>1.032713375844916</v>
+        <v>1.037009966272268</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015112807684981</v>
+        <v>1.018071488433713</v>
       </c>
       <c r="D4">
-        <v>1.032062706651063</v>
+        <v>1.035048776007421</v>
       </c>
       <c r="E4">
-        <v>1.018731538540622</v>
+        <v>1.021557645251914</v>
       </c>
       <c r="F4">
-        <v>1.033779127352827</v>
+        <v>1.036827325362765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046941328430073</v>
+        <v>1.048930365657254</v>
       </c>
       <c r="J4">
-        <v>1.034137670496089</v>
+        <v>1.037023954175958</v>
       </c>
       <c r="K4">
-        <v>1.041788970929348</v>
+        <v>1.044741824155213</v>
       </c>
       <c r="L4">
-        <v>1.028609027058025</v>
+        <v>1.031402668563714</v>
       </c>
       <c r="M4">
-        <v>1.043486269842631</v>
+        <v>1.046500701220541</v>
       </c>
       <c r="N4">
-        <v>1.035606264605442</v>
+        <v>1.038496647139198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016793791512197</v>
+        <v>1.019157223561517</v>
       </c>
       <c r="D5">
-        <v>1.033381729855636</v>
+        <v>1.035892999752101</v>
       </c>
       <c r="E5">
-        <v>1.020122095980083</v>
+        <v>1.022423885455194</v>
       </c>
       <c r="F5">
-        <v>1.035316813935057</v>
+        <v>1.037853217518945</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047422250676145</v>
+        <v>1.049240474321707</v>
       </c>
       <c r="J5">
-        <v>1.035333554375817</v>
+        <v>1.037640931445473</v>
       </c>
       <c r="K5">
-        <v>1.042878361247141</v>
+        <v>1.045362461356283</v>
       </c>
       <c r="L5">
-        <v>1.029764914486394</v>
+        <v>1.032040992203163</v>
       </c>
       <c r="M5">
-        <v>1.044792495089202</v>
+        <v>1.04730158321793</v>
       </c>
       <c r="N5">
-        <v>1.036803846777449</v>
+        <v>1.039114500587204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017074613217147</v>
+        <v>1.019338859903657</v>
       </c>
       <c r="D6">
-        <v>1.033602111554494</v>
+        <v>1.036034271063998</v>
       </c>
       <c r="E6">
-        <v>1.020354478847243</v>
+        <v>1.02256887916745</v>
       </c>
       <c r="F6">
-        <v>1.035573775773227</v>
+        <v>1.038024916995772</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047502426540617</v>
+        <v>1.049292235691052</v>
       </c>
       <c r="J6">
-        <v>1.035533284196684</v>
+        <v>1.037744111698798</v>
       </c>
       <c r="K6">
-        <v>1.04306027559441</v>
+        <v>1.045466244869243</v>
       </c>
       <c r="L6">
-        <v>1.029957993629331</v>
+        <v>1.032147775606147</v>
       </c>
       <c r="M6">
-        <v>1.045010696761997</v>
+        <v>1.047435566784449</v>
       </c>
       <c r="N6">
-        <v>1.037003860237572</v>
+        <v>1.039217827368324</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015135365166561</v>
+        <v>1.01808604075797</v>
       </c>
       <c r="D7">
-        <v>1.032080404942159</v>
+        <v>1.035060088712185</v>
       </c>
       <c r="E7">
-        <v>1.018750193355904</v>
+        <v>1.021569250417597</v>
       </c>
       <c r="F7">
-        <v>1.033799756533794</v>
+        <v>1.036841070577919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04694779316102</v>
+        <v>1.048934529997455</v>
       </c>
       <c r="J7">
-        <v>1.034153721785917</v>
+        <v>1.037032226044555</v>
       </c>
       <c r="K7">
-        <v>1.041803594824562</v>
+        <v>1.044750145681105</v>
       </c>
       <c r="L7">
-        <v>1.028624539535886</v>
+        <v>1.03141122438829</v>
       </c>
       <c r="M7">
-        <v>1.04350379923193</v>
+        <v>1.046511435494647</v>
       </c>
       <c r="N7">
-        <v>1.035622338689943</v>
+        <v>1.038504930754797</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006815195404276</v>
+        <v>1.012750880752785</v>
       </c>
       <c r="D8">
-        <v>1.02555646238761</v>
+        <v>1.030917407853569</v>
       </c>
       <c r="E8">
-        <v>1.011879366759915</v>
+        <v>1.017323926354986</v>
       </c>
       <c r="F8">
-        <v>1.026200684113746</v>
+        <v>1.031810774071312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044544045569108</v>
+        <v>1.047394166171684</v>
       </c>
       <c r="J8">
-        <v>1.028227533631256</v>
+        <v>1.033995563572866</v>
       </c>
       <c r="K8">
-        <v>1.036401034592278</v>
+        <v>1.041694256118417</v>
       </c>
       <c r="L8">
-        <v>1.022900793339019</v>
+        <v>1.028274237875184</v>
       </c>
       <c r="M8">
-        <v>1.037037071266768</v>
+        <v>1.042576421880963</v>
       </c>
       <c r="N8">
-        <v>1.02968773466836</v>
+        <v>1.035463955874089</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912553438839073</v>
+        <v>1.002951674291753</v>
       </c>
       <c r="D9">
-        <v>1.013380916481361</v>
+        <v>1.023333991157863</v>
       </c>
       <c r="E9">
-        <v>0.9990828230911492</v>
+        <v>1.009573596983284</v>
       </c>
       <c r="F9">
-        <v>1.012042159713298</v>
+        <v>1.02261640838564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039959319629258</v>
+        <v>1.044501762158379</v>
       </c>
       <c r="J9">
-        <v>1.017120723069424</v>
+        <v>1.028400630169642</v>
       </c>
       <c r="K9">
-        <v>1.02626056498727</v>
+        <v>1.036059503883587</v>
       </c>
       <c r="L9">
-        <v>1.012190798398376</v>
+        <v>1.022513235632885</v>
       </c>
       <c r="M9">
-        <v>1.024942836536651</v>
+        <v>1.035352905730675</v>
       </c>
       <c r="N9">
-        <v>1.01856515116156</v>
+        <v>1.029861077023684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.980181596798155</v>
+        <v>0.9961247023337088</v>
       </c>
       <c r="D10">
-        <v>1.004739762162934</v>
+        <v>1.018070949149875</v>
       </c>
       <c r="E10">
-        <v>0.9900176279498072</v>
+        <v>1.004208614690161</v>
       </c>
       <c r="F10">
-        <v>1.002007650528644</v>
+        <v>1.016243442073583</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036639655910332</v>
+        <v>1.042446032621342</v>
       </c>
       <c r="J10">
-        <v>1.009204199187223</v>
+        <v>1.02449292288078</v>
       </c>
       <c r="K10">
-        <v>1.019023962846868</v>
+        <v>1.032121416503834</v>
       </c>
       <c r="L10">
-        <v>1.00456948699745</v>
+        <v>1.018502294806206</v>
       </c>
       <c r="M10">
-        <v>1.016340750591764</v>
+        <v>1.030325481496913</v>
       </c>
       <c r="N10">
-        <v>1.010637384907409</v>
+        <v>1.025947820342251</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9751958152433918</v>
+        <v>0.9930924032480046</v>
       </c>
       <c r="D11">
-        <v>1.00085665756795</v>
+        <v>1.015738779108013</v>
       </c>
       <c r="E11">
-        <v>0.9859476328359499</v>
+        <v>1.001834507765476</v>
       </c>
       <c r="F11">
-        <v>0.9975012486839798</v>
+        <v>1.013421070139663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035132531619689</v>
+        <v>1.041523796624325</v>
       </c>
       <c r="J11">
-        <v>1.005638164726181</v>
+        <v>1.022755396785185</v>
       </c>
       <c r="K11">
-        <v>1.01576243664438</v>
+        <v>1.030369865888297</v>
       </c>
       <c r="L11">
-        <v>1.001139512663662</v>
+        <v>1.016721910683663</v>
       </c>
       <c r="M11">
-        <v>1.012470442143876</v>
+        <v>1.028094246669728</v>
       </c>
       <c r="N11">
-        <v>1.007066286268401</v>
+        <v>1.024207826760303</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9733128441652389</v>
+        <v>0.9919540464809199</v>
       </c>
       <c r="D12">
-        <v>0.9993914133879045</v>
+        <v>1.014864143915819</v>
       </c>
       <c r="E12">
-        <v>0.9844123902103884</v>
+        <v>1.000944625733131</v>
       </c>
       <c r="F12">
-        <v>0.9958011926955689</v>
+        <v>1.012362813486581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03456155241249</v>
+        <v>1.041176246897737</v>
       </c>
       <c r="J12">
-        <v>1.004291227813508</v>
+        <v>1.022102872603282</v>
       </c>
       <c r="K12">
-        <v>1.014530282251938</v>
+        <v>1.02971200547445</v>
       </c>
       <c r="L12">
-        <v>0.9998444438310036</v>
+        <v>1.016053750554196</v>
       </c>
       <c r="M12">
-        <v>1.011009279771322</v>
+        <v>1.027256933364505</v>
       </c>
       <c r="N12">
-        <v>1.005717436550817</v>
+        <v>1.023554375919217</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9737181929178075</v>
+        <v>0.9921987818064925</v>
       </c>
       <c r="D13">
-        <v>0.9997067771208142</v>
+        <v>1.015052140694471</v>
       </c>
       <c r="E13">
-        <v>0.9847427965461176</v>
+        <v>1.001135878071604</v>
       </c>
       <c r="F13">
-        <v>0.9961670783446362</v>
+        <v>1.012590268938254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034684546683383</v>
+        <v>1.041251026136508</v>
       </c>
       <c r="J13">
-        <v>1.004581189481482</v>
+        <v>1.022243168893701</v>
       </c>
       <c r="K13">
-        <v>1.01479554417301</v>
+        <v>1.029853452082594</v>
       </c>
       <c r="L13">
-        <v>1.000123217861285</v>
+        <v>1.0161973878704</v>
       </c>
       <c r="M13">
-        <v>1.011323799229007</v>
+        <v>1.027436932271532</v>
       </c>
       <c r="N13">
-        <v>1.006007809997619</v>
+        <v>1.023694871446461</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9750408158918197</v>
+        <v>0.9929985551373878</v>
       </c>
       <c r="D14">
-        <v>1.000736016997096</v>
+        <v>1.015666654287563</v>
       </c>
       <c r="E14">
-        <v>0.9858212185185988</v>
+        <v>1.001761115900846</v>
       </c>
       <c r="F14">
-        <v>0.9973612674432191</v>
+        <v>1.01333379908041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035085566378668</v>
+        <v>1.041495170866947</v>
       </c>
       <c r="J14">
-        <v>1.00552729236884</v>
+        <v>1.022701606170036</v>
       </c>
       <c r="K14">
-        <v>1.015661017109441</v>
+        <v>1.030315636744141</v>
       </c>
       <c r="L14">
-        <v>1.001032900046943</v>
+        <v>1.016666821774137</v>
       </c>
       <c r="M14">
-        <v>1.012350152995282</v>
+        <v>1.028025210394094</v>
       </c>
       <c r="N14">
-        <v>1.006955256459596</v>
+        <v>1.024153959756311</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.97585154052884</v>
+        <v>0.993489710331563</v>
       </c>
       <c r="D15">
-        <v>1.001367081025457</v>
+        <v>1.016044156881335</v>
       </c>
       <c r="E15">
-        <v>0.9864825057818913</v>
+        <v>1.002145269808263</v>
       </c>
       <c r="F15">
-        <v>0.9980935167033747</v>
+        <v>1.013790586147781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035331146130339</v>
+        <v>1.041644930017675</v>
       </c>
       <c r="J15">
-        <v>1.006107204772929</v>
+        <v>1.022983110501341</v>
       </c>
       <c r="K15">
-        <v>1.016191477658365</v>
+        <v>1.030599433266741</v>
       </c>
       <c r="L15">
-        <v>1.001590551551767</v>
+        <v>1.016955139254823</v>
       </c>
       <c r="M15">
-        <v>1.01297934817501</v>
+        <v>1.028386525727569</v>
       </c>
       <c r="N15">
-        <v>1.007535992405816</v>
+        <v>1.024435863856056</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9805082710062331</v>
+        <v>0.9963242923082348</v>
       </c>
       <c r="D16">
-        <v>1.004994355379846</v>
+        <v>1.018224575263197</v>
       </c>
       <c r="E16">
-        <v>0.9902845482495964</v>
+        <v>1.004365070387687</v>
       </c>
       <c r="F16">
-        <v>1.002303165088821</v>
+        <v>1.016429390941384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036738152774538</v>
+        <v>1.042506548077792</v>
       </c>
       <c r="J16">
-        <v>1.009437822195126</v>
+        <v>1.024607253773474</v>
       </c>
       <c r="K16">
-        <v>1.019237602434606</v>
+        <v>1.032236660146364</v>
       </c>
       <c r="L16">
-        <v>1.004794261233484</v>
+        <v>1.018619509417961</v>
       </c>
       <c r="M16">
-        <v>1.01659440344845</v>
+        <v>1.030472385403985</v>
       </c>
       <c r="N16">
-        <v>1.010871339686779</v>
+        <v>1.026062313597927</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.98337664674665</v>
+        <v>0.9980815572297153</v>
       </c>
       <c r="D17">
-        <v>1.007230681163114</v>
+        <v>1.019577789768736</v>
       </c>
       <c r="E17">
-        <v>0.9926295657832531</v>
+        <v>1.005743577836942</v>
       </c>
       <c r="F17">
-        <v>1.004899257133747</v>
+        <v>1.018067503168891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037601604541752</v>
+        <v>1.043038310511115</v>
       </c>
       <c r="J17">
-        <v>1.011488972408317</v>
+        <v>1.025613658511639</v>
       </c>
       <c r="K17">
-        <v>1.021113107101215</v>
+        <v>1.033251041575027</v>
       </c>
       <c r="L17">
-        <v>1.006768071453541</v>
+        <v>1.019651645243199</v>
       </c>
       <c r="M17">
-        <v>1.018821926490421</v>
+        <v>1.031765989933757</v>
       </c>
       <c r="N17">
-        <v>1.012925402768543</v>
+        <v>1.027070147546257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9850314877305005</v>
+        <v>0.9990992314643914</v>
       </c>
       <c r="D18">
-        <v>1.008521565878121</v>
+        <v>1.020361985946124</v>
       </c>
       <c r="E18">
-        <v>0.9939835386125186</v>
+        <v>1.006542739655271</v>
       </c>
       <c r="F18">
-        <v>1.006398082378918</v>
+        <v>1.019016956199985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038098568250926</v>
+        <v>1.043345394107035</v>
       </c>
       <c r="J18">
-        <v>1.012672163161001</v>
+        <v>1.026196311994416</v>
       </c>
       <c r="K18">
-        <v>1.022194809513635</v>
+        <v>1.033838263535325</v>
       </c>
       <c r="L18">
-        <v>1.007906938491751</v>
+        <v>1.020249484559552</v>
       </c>
       <c r="M18">
-        <v>1.020107282982707</v>
+        <v>1.032515312027954</v>
       </c>
       <c r="N18">
-        <v>1.01411027378781</v>
+        <v>1.027653628463811</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9855927206775881</v>
+        <v>0.9994450094687187</v>
       </c>
       <c r="D19">
-        <v>1.008959476883072</v>
+        <v>1.020628520403853</v>
       </c>
       <c r="E19">
-        <v>0.9944429109310131</v>
+        <v>1.00681441310919</v>
       </c>
       <c r="F19">
-        <v>1.006906580955082</v>
+        <v>1.01933968591002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038266908118042</v>
+        <v>1.043449583462877</v>
       </c>
       <c r="J19">
-        <v>1.013073405767593</v>
+        <v>1.026394250125377</v>
       </c>
       <c r="K19">
-        <v>1.022561606017426</v>
+        <v>1.034037745010411</v>
       </c>
       <c r="L19">
-        <v>1.008293198769176</v>
+        <v>1.020452630554819</v>
       </c>
       <c r="M19">
-        <v>1.020543243701087</v>
+        <v>1.032769937766305</v>
       </c>
       <c r="N19">
-        <v>1.014512086204926</v>
+        <v>1.027851847689621</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9830707994970267</v>
+        <v>0.9978937793902806</v>
       </c>
       <c r="D20">
-        <v>1.006992154945547</v>
+        <v>1.019433133878048</v>
       </c>
       <c r="E20">
-        <v>0.9923794106222557</v>
+        <v>1.005596186258074</v>
       </c>
       <c r="F20">
-        <v>1.004622330456545</v>
+        <v>1.017892376203199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037509659365637</v>
+        <v>1.042981577659792</v>
       </c>
       <c r="J20">
-        <v>1.011270280845728</v>
+        <v>1.025506134444595</v>
       </c>
       <c r="K20">
-        <v>1.020913159981581</v>
+        <v>1.033142670366869</v>
       </c>
       <c r="L20">
-        <v>1.006557595660444</v>
+        <v>1.019541342086765</v>
       </c>
       <c r="M20">
-        <v>1.018584385805231</v>
+        <v>1.031627740491677</v>
       </c>
       <c r="N20">
-        <v>1.012706400638851</v>
+        <v>1.026962470782705</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.974652213301506</v>
+        <v>0.9927633786514464</v>
       </c>
       <c r="D21">
-        <v>1.000433577318086</v>
+        <v>1.015485929261611</v>
       </c>
       <c r="E21">
-        <v>0.985504312665725</v>
+        <v>1.001577223740141</v>
       </c>
       <c r="F21">
-        <v>0.9970103476961223</v>
+        <v>1.013115125177668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034967790281659</v>
+        <v>1.041423415491195</v>
       </c>
       <c r="J21">
-        <v>1.005249319429264</v>
+        <v>1.022566807126764</v>
       </c>
       <c r="K21">
-        <v>1.015406740097782</v>
+        <v>1.030179737660234</v>
       </c>
       <c r="L21">
-        <v>1.000765614603383</v>
+        <v>1.016528776618251</v>
       </c>
       <c r="M21">
-        <v>1.012048582186042</v>
+        <v>1.027852215806075</v>
       </c>
       <c r="N21">
-        <v>1.006676888766562</v>
+        <v>1.024018969282936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9691782127339362</v>
+        <v>0.9894677990535363</v>
       </c>
       <c r="D22">
-        <v>0.9961765818393683</v>
+        <v>1.012955580235866</v>
       </c>
       <c r="E22">
-        <v>0.9810449080124417</v>
+        <v>0.9990036688346148</v>
       </c>
       <c r="F22">
-        <v>0.9920718221317092</v>
+        <v>1.010053938545205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033304610796246</v>
+        <v>1.040414773993062</v>
       </c>
       <c r="J22">
-        <v>1.00133344998657</v>
+        <v>1.020677323800031</v>
       </c>
       <c r="K22">
-        <v>1.011824163816351</v>
+        <v>1.028274680633269</v>
       </c>
       <c r="L22">
-        <v>0.9970014591176826</v>
+        <v>1.014594889112417</v>
       </c>
       <c r="M22">
-        <v>1.007801991038296</v>
+        <v>1.025428821863312</v>
       </c>
       <c r="N22">
-        <v>1.002755458340103</v>
+        <v>1.022126802673152</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9720980929466587</v>
+        <v>0.9912216770378404</v>
       </c>
       <c r="D23">
-        <v>0.9984465308634936</v>
+        <v>1.014301699013481</v>
       </c>
       <c r="E23">
-        <v>0.9834225118614659</v>
+        <v>1.000372510949008</v>
       </c>
       <c r="F23">
-        <v>0.9947049904555629</v>
+        <v>1.011682347046852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034192708177522</v>
+        <v>1.040952278412047</v>
       </c>
       <c r="J23">
-        <v>1.003422254309651</v>
+        <v>1.021683004786843</v>
       </c>
       <c r="K23">
-        <v>1.013735298559973</v>
+        <v>1.029288685563002</v>
       </c>
       <c r="L23">
-        <v>0.9990090690361175</v>
+        <v>1.015623951449442</v>
       </c>
       <c r="M23">
-        <v>1.010066814816903</v>
+        <v>1.026718337576895</v>
       </c>
       <c r="N23">
-        <v>1.004847229004912</v>
+        <v>1.023133911842319</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9832090548773931</v>
+        <v>0.9979786506570216</v>
       </c>
       <c r="D24">
-        <v>1.007099976355161</v>
+        <v>1.019498513416709</v>
       </c>
       <c r="E24">
-        <v>0.9924924876022804</v>
+        <v>1.005662801279161</v>
       </c>
       <c r="F24">
-        <v>1.004747509246491</v>
+        <v>1.017971527142539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037551226003241</v>
+        <v>1.043007222312889</v>
       </c>
       <c r="J24">
-        <v>1.011369138855183</v>
+        <v>1.025554733410963</v>
       </c>
       <c r="K24">
-        <v>1.021003545220642</v>
+        <v>1.033191652380313</v>
       </c>
       <c r="L24">
-        <v>1.006652738890929</v>
+        <v>1.019591196256556</v>
       </c>
       <c r="M24">
-        <v>1.018691763107986</v>
+        <v>1.031690225554625</v>
       </c>
       <c r="N24">
-        <v>1.012805399038018</v>
+        <v>1.027011138765179</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953937775979902</v>
+        <v>1.005534808922134</v>
       </c>
       <c r="D25">
-        <v>1.016615651758966</v>
+        <v>1.025329756437465</v>
       </c>
       <c r="E25">
-        <v>1.002479594109206</v>
+        <v>1.011610864403095</v>
       </c>
       <c r="F25">
-        <v>1.015801179995632</v>
+        <v>1.025034638673559</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041188712514459</v>
+        <v>1.045271389981937</v>
       </c>
       <c r="J25">
-        <v>1.020077160132136</v>
+        <v>1.02987732966511</v>
       </c>
       <c r="K25">
-        <v>1.028961392792424</v>
+        <v>1.037547185793917</v>
       </c>
       <c r="L25">
-        <v>1.015039539138087</v>
+        <v>1.024031571371752</v>
       </c>
       <c r="M25">
-        <v>1.028159056866676</v>
+        <v>1.037256368243009</v>
       </c>
       <c r="N25">
-        <v>1.02152578670401</v>
+        <v>1.031339873601816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01135130848559</v>
+        <v>1.006553563432334</v>
       </c>
       <c r="D2">
-        <v>1.02983226033272</v>
+        <v>1.025758803643712</v>
       </c>
       <c r="E2">
-        <v>1.016213303603752</v>
+        <v>1.012129490517677</v>
       </c>
       <c r="F2">
-        <v>1.030494093459589</v>
+        <v>1.030659244815545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046985795683918</v>
+        <v>1.044720756164872</v>
       </c>
       <c r="J2">
-        <v>1.033197724761458</v>
+        <v>1.028540009946513</v>
       </c>
       <c r="K2">
-        <v>1.040891059052958</v>
+        <v>1.036870572769041</v>
       </c>
       <c r="L2">
-        <v>1.02745128955564</v>
+        <v>1.023422389587267</v>
       </c>
       <c r="M2">
-        <v>1.041544335317632</v>
+        <v>1.041707353569769</v>
       </c>
       <c r="N2">
-        <v>1.03466498404006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013421210512215</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041580962466207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015461519037991</v>
+        <v>1.009864828669056</v>
       </c>
       <c r="D3">
-        <v>1.033020981364742</v>
+        <v>1.028054999489939</v>
       </c>
       <c r="E3">
-        <v>1.019478523308617</v>
+        <v>1.014694084353954</v>
       </c>
       <c r="F3">
-        <v>1.034364292140509</v>
+        <v>1.03310934553613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048180124674986</v>
+        <v>1.045446466748707</v>
       </c>
       <c r="J3">
-        <v>1.035539381572408</v>
+        <v>1.030090133892425</v>
       </c>
       <c r="K3">
-        <v>1.043248091417282</v>
+        <v>1.038341067246668</v>
       </c>
       <c r="L3">
-        <v>1.029868094419589</v>
+        <v>1.025142341475531</v>
       </c>
       <c r="M3">
-        <v>1.044575574418832</v>
+        <v>1.043335412857541</v>
       </c>
       <c r="N3">
-        <v>1.037009966272268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013943749401294</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042869459160397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018071488433713</v>
+        <v>1.011972628670684</v>
       </c>
       <c r="D4">
-        <v>1.035048776007421</v>
+        <v>1.029519927153127</v>
       </c>
       <c r="E4">
-        <v>1.021557645251914</v>
+        <v>1.016332171976447</v>
       </c>
       <c r="F4">
-        <v>1.036827325362765</v>
+        <v>1.03467539567255</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048930365657254</v>
+        <v>1.045900723340268</v>
       </c>
       <c r="J4">
-        <v>1.037023954175958</v>
+        <v>1.031074953771539</v>
       </c>
       <c r="K4">
-        <v>1.044741824155213</v>
+        <v>1.039274663581156</v>
       </c>
       <c r="L4">
-        <v>1.031402668563714</v>
+        <v>1.026237398602366</v>
       </c>
       <c r="M4">
-        <v>1.046500701220541</v>
+        <v>1.044372584291764</v>
       </c>
       <c r="N4">
-        <v>1.038496647139198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014275619887025</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043690307660595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019157223561517</v>
+        <v>1.012850627134507</v>
       </c>
       <c r="D5">
-        <v>1.035892999752101</v>
+        <v>1.030130889466837</v>
       </c>
       <c r="E5">
-        <v>1.022423885455194</v>
+        <v>1.017015825312016</v>
       </c>
       <c r="F5">
-        <v>1.037853217518945</v>
+        <v>1.035329239421977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049240474321707</v>
+        <v>1.046088067260255</v>
       </c>
       <c r="J5">
-        <v>1.037640931445473</v>
+        <v>1.031484694628501</v>
       </c>
       <c r="K5">
-        <v>1.045362461356283</v>
+        <v>1.039662933684608</v>
       </c>
       <c r="L5">
-        <v>1.032040992203163</v>
+        <v>1.026693569217491</v>
       </c>
       <c r="M5">
-        <v>1.04730158321793</v>
+        <v>1.044804786361549</v>
       </c>
       <c r="N5">
-        <v>1.039114500587204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014413669544359</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044032365035115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019338859903657</v>
+        <v>1.012997576791208</v>
       </c>
       <c r="D6">
-        <v>1.036034271063998</v>
+        <v>1.030233188680267</v>
       </c>
       <c r="E6">
-        <v>1.02256887916745</v>
+        <v>1.017130323971385</v>
       </c>
       <c r="F6">
-        <v>1.038024916995772</v>
+        <v>1.035438760344888</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049292235691052</v>
+        <v>1.04611931176345</v>
       </c>
       <c r="J6">
-        <v>1.037744111698798</v>
+        <v>1.031553243451065</v>
       </c>
       <c r="K6">
-        <v>1.045466244869243</v>
+        <v>1.039727880957749</v>
       </c>
       <c r="L6">
-        <v>1.032147775606147</v>
+        <v>1.026769918929037</v>
       </c>
       <c r="M6">
-        <v>1.047435566784449</v>
+        <v>1.044877132850974</v>
       </c>
       <c r="N6">
-        <v>1.039217827368324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014436763327665</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044089622149759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01808604075797</v>
+        <v>1.01198439216019</v>
       </c>
       <c r="D7">
-        <v>1.035060088712185</v>
+        <v>1.029528109955355</v>
       </c>
       <c r="E7">
-        <v>1.021569250417597</v>
+        <v>1.016341326471755</v>
       </c>
       <c r="F7">
-        <v>1.036841070577919</v>
+        <v>1.034684150003986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048934529997455</v>
+        <v>1.045903240827577</v>
       </c>
       <c r="J7">
-        <v>1.037032226044555</v>
+        <v>1.031080445447681</v>
       </c>
       <c r="K7">
-        <v>1.044750145681105</v>
+        <v>1.039279868125269</v>
       </c>
       <c r="L7">
-        <v>1.03141122438829</v>
+        <v>1.026243510333356</v>
       </c>
       <c r="M7">
-        <v>1.046511435494647</v>
+        <v>1.044378374326924</v>
       </c>
       <c r="N7">
-        <v>1.038504930754797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014277470249116</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043694890065034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012750880752785</v>
+        <v>1.007679959334199</v>
       </c>
       <c r="D8">
-        <v>1.030917407853569</v>
+        <v>1.026539196281882</v>
       </c>
       <c r="E8">
-        <v>1.017323926354986</v>
+        <v>1.013000705835457</v>
       </c>
       <c r="F8">
-        <v>1.031810774071312</v>
+        <v>1.031491333445143</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047394166171684</v>
+        <v>1.044969213801739</v>
       </c>
       <c r="J8">
-        <v>1.033995563572866</v>
+        <v>1.029067703871555</v>
       </c>
       <c r="K8">
-        <v>1.041694256118417</v>
+        <v>1.037371287665764</v>
       </c>
       <c r="L8">
-        <v>1.028274237875184</v>
+        <v>1.024007407514601</v>
       </c>
       <c r="M8">
-        <v>1.042576421880963</v>
+        <v>1.042260983419008</v>
       </c>
       <c r="N8">
-        <v>1.035463955874089</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013599114983296</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042019122583679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002951674291753</v>
+        <v>0.9998184493052904</v>
       </c>
       <c r="D9">
-        <v>1.023333991157863</v>
+        <v>1.021107814508845</v>
       </c>
       <c r="E9">
-        <v>1.009573596983284</v>
+        <v>1.006944864713136</v>
       </c>
       <c r="F9">
-        <v>1.02261640838564</v>
+        <v>1.025712333078108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044501762158379</v>
+        <v>1.043203905630376</v>
       </c>
       <c r="J9">
-        <v>1.028400630169642</v>
+        <v>1.025377620224772</v>
       </c>
       <c r="K9">
-        <v>1.036059503883587</v>
+        <v>1.033867469377766</v>
       </c>
       <c r="L9">
-        <v>1.022513235632885</v>
+        <v>1.019926262336474</v>
       </c>
       <c r="M9">
-        <v>1.035352905730675</v>
+        <v>1.038401578676844</v>
       </c>
       <c r="N9">
-        <v>1.029861077023684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012354664241992</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038964662455483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9961247023337088</v>
+        <v>0.9944237009599322</v>
       </c>
       <c r="D10">
-        <v>1.018070949149875</v>
+        <v>1.0174276281735</v>
       </c>
       <c r="E10">
-        <v>1.004208614690161</v>
+        <v>1.002827272261867</v>
       </c>
       <c r="F10">
-        <v>1.016243442073583</v>
+        <v>1.02186646784873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042446032621342</v>
+        <v>1.041974063703297</v>
       </c>
       <c r="J10">
-        <v>1.02449292288078</v>
+        <v>1.022860321716098</v>
       </c>
       <c r="K10">
-        <v>1.032121416503834</v>
+        <v>1.031489192829693</v>
       </c>
       <c r="L10">
-        <v>1.018502294806206</v>
+        <v>1.017145666380866</v>
       </c>
       <c r="M10">
-        <v>1.030325481496913</v>
+        <v>1.035851829794063</v>
       </c>
       <c r="N10">
-        <v>1.025947820342251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011508292447559</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036998230942116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9930924032480046</v>
+        <v>0.9924124701469209</v>
       </c>
       <c r="D11">
-        <v>1.015738779108013</v>
+        <v>1.016270839838252</v>
       </c>
       <c r="E11">
-        <v>1.001834507765476</v>
+        <v>1.001347264459915</v>
       </c>
       <c r="F11">
-        <v>1.013421070139663</v>
+        <v>1.021098494613133</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041523796624325</v>
+        <v>1.041664598664912</v>
       </c>
       <c r="J11">
-        <v>1.022755396785185</v>
+        <v>1.022104341712316</v>
       </c>
       <c r="K11">
-        <v>1.030369865888297</v>
+        <v>1.030892299590598</v>
       </c>
       <c r="L11">
-        <v>1.016721910683663</v>
+        <v>1.016243817993108</v>
       </c>
       <c r="M11">
-        <v>1.028094246669728</v>
+        <v>1.035633198838695</v>
       </c>
       <c r="N11">
-        <v>1.024207826760303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011280148653775</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037262030129657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9919540464809199</v>
+        <v>0.9917986338828573</v>
       </c>
       <c r="D12">
-        <v>1.014864143915819</v>
+        <v>1.016009761742384</v>
       </c>
       <c r="E12">
-        <v>1.000944625733131</v>
+        <v>1.000918726705842</v>
       </c>
       <c r="F12">
-        <v>1.012362813486581</v>
+        <v>1.021146663052282</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041176246897737</v>
+        <v>1.041637948277596</v>
       </c>
       <c r="J12">
-        <v>1.022102872603282</v>
+        <v>1.021954192183952</v>
       </c>
       <c r="K12">
-        <v>1.02971200547445</v>
+        <v>1.030836535903945</v>
       </c>
       <c r="L12">
-        <v>1.016053750554196</v>
+        <v>1.016028346503397</v>
       </c>
       <c r="M12">
-        <v>1.027256933364505</v>
+        <v>1.035879638933648</v>
       </c>
       <c r="N12">
-        <v>1.023554375919217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011251449829543</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037783687859526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9921987818064925</v>
+        <v>0.9922196418080532</v>
       </c>
       <c r="D13">
-        <v>1.015052140694471</v>
+        <v>1.016422109198581</v>
       </c>
       <c r="E13">
-        <v>1.001135878071604</v>
+        <v>1.001268919170853</v>
       </c>
       <c r="F13">
-        <v>1.012590268938254</v>
+        <v>1.021838731398836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041251026136508</v>
+        <v>1.041831695064577</v>
       </c>
       <c r="J13">
-        <v>1.022243168893701</v>
+        <v>1.0222631294544</v>
       </c>
       <c r="K13">
-        <v>1.029853452082594</v>
+        <v>1.031198307274052</v>
       </c>
       <c r="L13">
-        <v>1.0161973878704</v>
+        <v>1.016327896653704</v>
       </c>
       <c r="M13">
-        <v>1.027436932271532</v>
+        <v>1.036516493015569</v>
       </c>
       <c r="N13">
-        <v>1.023694871446461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011375216508759</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038564111177077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929985551373878</v>
+        <v>0.9929818011852564</v>
       </c>
       <c r="D14">
-        <v>1.015666654287563</v>
+        <v>1.017013707163037</v>
       </c>
       <c r="E14">
-        <v>1.001761115900846</v>
+        <v>1.001865627448252</v>
       </c>
       <c r="F14">
-        <v>1.01333379908041</v>
+        <v>1.022612248952544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041495170866947</v>
+        <v>1.042065761986531</v>
       </c>
       <c r="J14">
-        <v>1.022701606170036</v>
+        <v>1.022685564322151</v>
       </c>
       <c r="K14">
-        <v>1.030315636744141</v>
+        <v>1.031638305324627</v>
       </c>
       <c r="L14">
-        <v>1.016666821774137</v>
+        <v>1.016769369119471</v>
       </c>
       <c r="M14">
-        <v>1.028025210394094</v>
+        <v>1.037136396050835</v>
       </c>
       <c r="N14">
-        <v>1.024153959756311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011530266205096</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03922753713786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993489710331563</v>
+        <v>0.9933948248636929</v>
       </c>
       <c r="D15">
-        <v>1.016044156881335</v>
+        <v>1.017309524952305</v>
       </c>
       <c r="E15">
-        <v>1.002145269808263</v>
+        <v>1.002182919733454</v>
       </c>
       <c r="F15">
-        <v>1.013790586147781</v>
+        <v>1.022954868975794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041644930017675</v>
+        <v>1.042173425486703</v>
       </c>
       <c r="J15">
-        <v>1.022983110501341</v>
+        <v>1.022892222635906</v>
       </c>
       <c r="K15">
-        <v>1.030599433266741</v>
+        <v>1.031842071766189</v>
       </c>
       <c r="L15">
-        <v>1.016955139254823</v>
+        <v>1.016992087079817</v>
       </c>
       <c r="M15">
-        <v>1.028386525727569</v>
+        <v>1.037386898003622</v>
       </c>
       <c r="N15">
-        <v>1.024435863856056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011602537699569</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039463083180276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9963242923082348</v>
+        <v>0.995590996368087</v>
       </c>
       <c r="D16">
-        <v>1.018224575263197</v>
+        <v>1.018787408164677</v>
       </c>
       <c r="E16">
-        <v>1.004365070387687</v>
+        <v>1.003847565134681</v>
       </c>
       <c r="F16">
-        <v>1.016429390941384</v>
+        <v>1.024479108547922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042506548077792</v>
+        <v>1.042668359051246</v>
       </c>
       <c r="J16">
-        <v>1.024607253773474</v>
+        <v>1.023903293226261</v>
       </c>
       <c r="K16">
-        <v>1.032236660146364</v>
+        <v>1.032789831150731</v>
       </c>
       <c r="L16">
-        <v>1.018619509417961</v>
+        <v>1.018111221762049</v>
       </c>
       <c r="M16">
-        <v>1.030472385403985</v>
+        <v>1.038384594401335</v>
       </c>
       <c r="N16">
-        <v>1.026062313597927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011938599729511</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040212928432852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9980815572297153</v>
+        <v>0.9968786811041039</v>
       </c>
       <c r="D17">
-        <v>1.019577789768736</v>
+        <v>1.019612517719383</v>
       </c>
       <c r="E17">
-        <v>1.005743577836942</v>
+        <v>1.004815080926111</v>
       </c>
       <c r="F17">
-        <v>1.018067503168891</v>
+        <v>1.025238971011907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043038310511115</v>
+        <v>1.042923369461015</v>
       </c>
       <c r="J17">
-        <v>1.025613658511639</v>
+        <v>1.02445733769002</v>
       </c>
       <c r="K17">
-        <v>1.033251041575027</v>
+        <v>1.033285190398737</v>
       </c>
       <c r="L17">
-        <v>1.019651645243199</v>
+        <v>1.018739207793355</v>
       </c>
       <c r="M17">
-        <v>1.031765989933757</v>
+        <v>1.038818482748002</v>
       </c>
       <c r="N17">
-        <v>1.027070147546257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01211494157168</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040426793819794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9990992314643914</v>
+        <v>0.9974995740015793</v>
       </c>
       <c r="D18">
-        <v>1.020361985946124</v>
+        <v>1.019935331206952</v>
       </c>
       <c r="E18">
-        <v>1.006542739655271</v>
+        <v>1.005264430565572</v>
       </c>
       <c r="F18">
-        <v>1.019016956199985</v>
+        <v>1.025365287065104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043345394107035</v>
+        <v>1.042988114390221</v>
       </c>
       <c r="J18">
-        <v>1.026196311994416</v>
+        <v>1.024657378372324</v>
       </c>
       <c r="K18">
-        <v>1.033838263535325</v>
+        <v>1.033418604090479</v>
       </c>
       <c r="L18">
-        <v>1.020249484559552</v>
+        <v>1.018992907625884</v>
       </c>
       <c r="M18">
-        <v>1.032515312027954</v>
+        <v>1.038760089864343</v>
       </c>
       <c r="N18">
-        <v>1.027653628463811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012165708439957</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040142813063352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994450094687187</v>
+        <v>0.9975098710203356</v>
       </c>
       <c r="D19">
-        <v>1.020628520403853</v>
+        <v>1.019795010023311</v>
       </c>
       <c r="E19">
-        <v>1.00681441310919</v>
+        <v>1.005238358674627</v>
       </c>
       <c r="F19">
-        <v>1.01933968591002</v>
+        <v>1.024903965270453</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043449583462877</v>
+        <v>1.042878854290199</v>
       </c>
       <c r="J19">
-        <v>1.026394250125377</v>
+        <v>1.02453210409944</v>
       </c>
       <c r="K19">
-        <v>1.034037745010411</v>
+        <v>1.03321782549415</v>
       </c>
       <c r="L19">
-        <v>1.020452630554819</v>
+        <v>1.018903218154951</v>
       </c>
       <c r="M19">
-        <v>1.032769937766305</v>
+        <v>1.038243922240315</v>
       </c>
       <c r="N19">
-        <v>1.027851847689621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012102713871498</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039408924567455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9978937793902806</v>
+        <v>0.9958208240508873</v>
       </c>
       <c r="D20">
-        <v>1.019433133878048</v>
+        <v>1.018380290232763</v>
       </c>
       <c r="E20">
-        <v>1.005596186258074</v>
+        <v>1.003891423964699</v>
       </c>
       <c r="F20">
-        <v>1.017892376203199</v>
+        <v>1.022863739152448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042981577659792</v>
+        <v>1.042296154134861</v>
       </c>
       <c r="J20">
-        <v>1.025506134444595</v>
+        <v>1.023513801943834</v>
       </c>
       <c r="K20">
-        <v>1.033142670366869</v>
+        <v>1.032107464692812</v>
       </c>
       <c r="L20">
-        <v>1.019541342086765</v>
+        <v>1.017866190768741</v>
       </c>
       <c r="M20">
-        <v>1.031627740491677</v>
+        <v>1.036516128084532</v>
       </c>
       <c r="N20">
-        <v>1.026962470782705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011728157716055</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037513385955918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9927633786514464</v>
+        <v>0.9917090409238075</v>
       </c>
       <c r="D21">
-        <v>1.015485929261611</v>
+        <v>1.015542753297833</v>
       </c>
       <c r="E21">
-        <v>1.001577223740141</v>
+        <v>1.000755992451626</v>
       </c>
       <c r="F21">
-        <v>1.013115125177668</v>
+        <v>1.019817946201073</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041423415491195</v>
+        <v>1.041315962480202</v>
       </c>
       <c r="J21">
-        <v>1.022566807126764</v>
+        <v>1.021557540704088</v>
       </c>
       <c r="K21">
-        <v>1.030179737660234</v>
+        <v>1.030235527523881</v>
       </c>
       <c r="L21">
-        <v>1.016528776618251</v>
+        <v>1.015723056465357</v>
       </c>
       <c r="M21">
-        <v>1.027852215806075</v>
+        <v>1.034433343323587</v>
       </c>
       <c r="N21">
-        <v>1.024018969282936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011065637792415</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035824056620659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9894677990535363</v>
+        <v>0.9891006075759373</v>
       </c>
       <c r="D22">
-        <v>1.012955580235866</v>
+        <v>1.013760931395922</v>
       </c>
       <c r="E22">
-        <v>0.9990036688346148</v>
+        <v>0.9987772699680487</v>
       </c>
       <c r="F22">
-        <v>1.010053938545205</v>
+        <v>1.017935808670338</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040414773993062</v>
+        <v>1.040696473070969</v>
       </c>
       <c r="J22">
-        <v>1.020677323800031</v>
+        <v>1.020326753661802</v>
       </c>
       <c r="K22">
-        <v>1.028274680633269</v>
+        <v>1.029064623317458</v>
       </c>
       <c r="L22">
-        <v>1.014594889112417</v>
+        <v>1.014372988357253</v>
       </c>
       <c r="M22">
-        <v>1.025428821863312</v>
+        <v>1.033160135002422</v>
       </c>
       <c r="N22">
-        <v>1.022126802673152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010650221230734</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03481639029023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9912216770378404</v>
+        <v>0.9904878765415147</v>
       </c>
       <c r="D23">
-        <v>1.014301699013481</v>
+        <v>1.014708074598847</v>
       </c>
       <c r="E23">
-        <v>1.000372510949008</v>
+        <v>0.9998289224404908</v>
       </c>
       <c r="F23">
-        <v>1.011682347046852</v>
+        <v>1.018935982060191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040952278412047</v>
+        <v>1.041026623171549</v>
       </c>
       <c r="J23">
-        <v>1.021683004786843</v>
+        <v>1.020981434420599</v>
       </c>
       <c r="K23">
-        <v>1.029288685563002</v>
+        <v>1.029687488074374</v>
       </c>
       <c r="L23">
-        <v>1.015623951449442</v>
+        <v>1.01509087907756</v>
       </c>
       <c r="M23">
-        <v>1.026718337576895</v>
+        <v>1.033837072680627</v>
       </c>
       <c r="N23">
-        <v>1.023133911842319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010871194865638</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035352145140668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9979786506570216</v>
+        <v>0.995851727178397</v>
       </c>
       <c r="D24">
-        <v>1.019498513416709</v>
+        <v>1.018380858871314</v>
       </c>
       <c r="E24">
-        <v>1.005662801279161</v>
+        <v>1.003910442239125</v>
       </c>
       <c r="F24">
-        <v>1.017971527142539</v>
+        <v>1.022820852456362</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043007222312889</v>
+        <v>1.042288037000282</v>
       </c>
       <c r="J24">
-        <v>1.025554733410963</v>
+        <v>1.023510401906182</v>
       </c>
       <c r="K24">
-        <v>1.033191652380313</v>
+        <v>1.032092695995011</v>
       </c>
       <c r="L24">
-        <v>1.019591196256556</v>
+        <v>1.017869232382688</v>
       </c>
       <c r="M24">
-        <v>1.031690225554625</v>
+        <v>1.036458719886033</v>
       </c>
       <c r="N24">
-        <v>1.027011138765179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011724673110949</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037427015050623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005534808922134</v>
+        <v>1.001885061627842</v>
       </c>
       <c r="D25">
-        <v>1.025329756437465</v>
+        <v>1.022532144894533</v>
       </c>
       <c r="E25">
-        <v>1.011610864403095</v>
+        <v>1.008531305220892</v>
       </c>
       <c r="F25">
-        <v>1.025034638673559</v>
+        <v>1.027225156992873</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045271389981937</v>
+        <v>1.043674733365048</v>
       </c>
       <c r="J25">
-        <v>1.02987732966511</v>
+        <v>1.026349152042131</v>
       </c>
       <c r="K25">
-        <v>1.037547185793917</v>
+        <v>1.034790465380091</v>
       </c>
       <c r="L25">
-        <v>1.024031571371752</v>
+        <v>1.02099861167045</v>
       </c>
       <c r="M25">
-        <v>1.037256368243009</v>
+        <v>1.039415042797804</v>
       </c>
       <c r="N25">
-        <v>1.031339873601816</v>
+        <v>1.012682386921664</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039766752621361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006553563432334</v>
+        <v>1.006326210817315</v>
       </c>
       <c r="D2">
-        <v>1.025758803643712</v>
+        <v>1.025091988209454</v>
       </c>
       <c r="E2">
-        <v>1.012129490517677</v>
+        <v>1.011938188608806</v>
       </c>
       <c r="F2">
-        <v>1.030659244815545</v>
+        <v>1.030222891605758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044720756164872</v>
+        <v>1.044464868162698</v>
       </c>
       <c r="J2">
-        <v>1.028540009946513</v>
+        <v>1.028319338495936</v>
       </c>
       <c r="K2">
-        <v>1.036870572769041</v>
+        <v>1.036212478706546</v>
       </c>
       <c r="L2">
-        <v>1.023422389587267</v>
+        <v>1.023233673691988</v>
       </c>
       <c r="M2">
-        <v>1.041707353569769</v>
+        <v>1.041276638177964</v>
       </c>
       <c r="N2">
-        <v>1.013421210512215</v>
+        <v>1.014713392508675</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041580962466207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04124008054211</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021696878578188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009864828669056</v>
+        <v>1.009521420115503</v>
       </c>
       <c r="D3">
-        <v>1.028054999489939</v>
+        <v>1.027226611610234</v>
       </c>
       <c r="E3">
-        <v>1.014694084353954</v>
+        <v>1.014401431649788</v>
       </c>
       <c r="F3">
-        <v>1.03310934553613</v>
+        <v>1.03255715142945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045446466748707</v>
+        <v>1.045112086755017</v>
       </c>
       <c r="J3">
-        <v>1.030090133892425</v>
+        <v>1.029755844601288</v>
       </c>
       <c r="K3">
-        <v>1.038341067246668</v>
+        <v>1.037522583051709</v>
       </c>
       <c r="L3">
-        <v>1.025142341475531</v>
+        <v>1.024853300815838</v>
       </c>
       <c r="M3">
-        <v>1.043335412857541</v>
+        <v>1.042789738478389</v>
       </c>
       <c r="N3">
-        <v>1.013943749401294</v>
+        <v>1.015098189812729</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042869459160397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042437595760917</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021949314499493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011972628670684</v>
+        <v>1.011556055040429</v>
       </c>
       <c r="D4">
-        <v>1.029519927153127</v>
+        <v>1.028589140104984</v>
       </c>
       <c r="E4">
-        <v>1.016332171976447</v>
+        <v>1.015975537489703</v>
       </c>
       <c r="F4">
-        <v>1.03467539567255</v>
+        <v>1.034049907133803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045900723340268</v>
+        <v>1.045516568971444</v>
       </c>
       <c r="J4">
-        <v>1.031074953771539</v>
+        <v>1.030668704921804</v>
       </c>
       <c r="K4">
-        <v>1.039274663581156</v>
+        <v>1.038354342144453</v>
       </c>
       <c r="L4">
-        <v>1.026237398602366</v>
+        <v>1.025884900846073</v>
       </c>
       <c r="M4">
-        <v>1.044372584291764</v>
+        <v>1.043754040131715</v>
       </c>
       <c r="N4">
-        <v>1.014275619887025</v>
+        <v>1.01534266704178</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043690307660595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043200773419866</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022107155304521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012850627134507</v>
+        <v>1.012403738019715</v>
       </c>
       <c r="D5">
-        <v>1.030130889466837</v>
+        <v>1.029157551585044</v>
       </c>
       <c r="E5">
-        <v>1.017015825312016</v>
+        <v>1.016632662142147</v>
       </c>
       <c r="F5">
-        <v>1.035329239421977</v>
+        <v>1.034673321879626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046088067260255</v>
+        <v>1.045683223446678</v>
       </c>
       <c r="J5">
-        <v>1.031484694628501</v>
+        <v>1.031048555556661</v>
       </c>
       <c r="K5">
-        <v>1.039662933684608</v>
+        <v>1.038700252242529</v>
       </c>
       <c r="L5">
-        <v>1.026693569217491</v>
+        <v>1.026314732368902</v>
       </c>
       <c r="M5">
-        <v>1.044804786361549</v>
+        <v>1.044155959151759</v>
       </c>
       <c r="N5">
-        <v>1.014413669544359</v>
+        <v>1.015444383393813</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044032365035115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04351886412085</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022172209706506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012997576791208</v>
+        <v>1.012545623017838</v>
       </c>
       <c r="D6">
-        <v>1.030233188680267</v>
+        <v>1.029252735042584</v>
       </c>
       <c r="E6">
-        <v>1.017130323971385</v>
+        <v>1.016742727789426</v>
       </c>
       <c r="F6">
-        <v>1.035438760344888</v>
+        <v>1.034777755758731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04611931176345</v>
+        <v>1.045711007714894</v>
       </c>
       <c r="J6">
-        <v>1.031553243451065</v>
+        <v>1.03111210655407</v>
       </c>
       <c r="K6">
-        <v>1.039727880957749</v>
+        <v>1.038758113229381</v>
       </c>
       <c r="L6">
-        <v>1.026769918929037</v>
+        <v>1.026386679150565</v>
       </c>
       <c r="M6">
-        <v>1.044877132850974</v>
+        <v>1.044223241261247</v>
       </c>
       <c r="N6">
-        <v>1.014436763327665</v>
+        <v>1.015461400270736</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044089622149759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043572113175632</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02218305672025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01198439216019</v>
+        <v>1.011573934973362</v>
       </c>
       <c r="D7">
-        <v>1.029528109955355</v>
+        <v>1.028601629585947</v>
       </c>
       <c r="E7">
-        <v>1.016341326471755</v>
+        <v>1.015990138956609</v>
       </c>
       <c r="F7">
-        <v>1.034684150003986</v>
+        <v>1.034062308816421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045903240827577</v>
+        <v>1.045521959223575</v>
       </c>
       <c r="J7">
-        <v>1.031080445447681</v>
+        <v>1.030680157331635</v>
       </c>
       <c r="K7">
-        <v>1.039279868125269</v>
+        <v>1.038363801211748</v>
       </c>
       <c r="L7">
-        <v>1.026243510333356</v>
+        <v>1.025896394886277</v>
       </c>
       <c r="M7">
-        <v>1.044378374326924</v>
+        <v>1.043763434551048</v>
       </c>
       <c r="N7">
-        <v>1.014277470249116</v>
+        <v>1.015371480796391</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043694890065034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043208208445132</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022109474207801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007679959334199</v>
+        <v>1.007433037056293</v>
       </c>
       <c r="D8">
-        <v>1.026539196281882</v>
+        <v>1.025832362641306</v>
       </c>
       <c r="E8">
-        <v>1.013000705835457</v>
+        <v>1.012792675618639</v>
       </c>
       <c r="F8">
-        <v>1.031491333445143</v>
+        <v>1.031027981436374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044969213801739</v>
+        <v>1.044696296106676</v>
       </c>
       <c r="J8">
-        <v>1.029067703871555</v>
+        <v>1.028827798115872</v>
       </c>
       <c r="K8">
-        <v>1.037371287665764</v>
+        <v>1.036673427869635</v>
       </c>
       <c r="L8">
-        <v>1.024007407514601</v>
+        <v>1.023802105965737</v>
       </c>
       <c r="M8">
-        <v>1.042260983419008</v>
+        <v>1.041803442087772</v>
       </c>
       <c r="N8">
-        <v>1.013599114983296</v>
+        <v>1.014927845634797</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042019122583679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04165700996783</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021787816322539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9998184493052904</v>
+        <v>0.9998544718552685</v>
       </c>
       <c r="D9">
-        <v>1.021107814508845</v>
+        <v>1.020789624611807</v>
       </c>
       <c r="E9">
-        <v>1.006944864713136</v>
+        <v>1.00698336042269</v>
       </c>
       <c r="F9">
-        <v>1.025712333078108</v>
+        <v>1.025528642653108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043203905630376</v>
+        <v>1.043119947057998</v>
       </c>
       <c r="J9">
-        <v>1.025377620224772</v>
+        <v>1.025412370143195</v>
       </c>
       <c r="K9">
-        <v>1.033867469377766</v>
+        <v>1.033554174981114</v>
       </c>
       <c r="L9">
-        <v>1.019926262336474</v>
+        <v>1.019964144502899</v>
       </c>
       <c r="M9">
-        <v>1.038401578676844</v>
+        <v>1.038220681689749</v>
       </c>
       <c r="N9">
-        <v>1.012354664241992</v>
+        <v>1.014022127487899</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038964662455483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038821494298879</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021173522567935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9944237009599322</v>
+        <v>0.9946843153904094</v>
       </c>
       <c r="D10">
-        <v>1.0174276281735</v>
+        <v>1.017396753100444</v>
       </c>
       <c r="E10">
-        <v>1.002827272261867</v>
+        <v>1.003061159291032</v>
       </c>
       <c r="F10">
-        <v>1.02186646784873</v>
+        <v>1.021892687994997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041974063703297</v>
+        <v>1.042032778255275</v>
       </c>
       <c r="J10">
-        <v>1.022860321716098</v>
+        <v>1.023110434869719</v>
       </c>
       <c r="K10">
-        <v>1.031489192829693</v>
+        <v>1.031458850808877</v>
       </c>
       <c r="L10">
-        <v>1.017145666380866</v>
+        <v>1.017375362650829</v>
       </c>
       <c r="M10">
-        <v>1.035851829794063</v>
+        <v>1.035877602352858</v>
       </c>
       <c r="N10">
-        <v>1.011508292447559</v>
+        <v>1.013523722704609</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036998230942116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037018627017723</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020755939514002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9924124701469209</v>
+        <v>0.9927772407725663</v>
       </c>
       <c r="D11">
-        <v>1.016270839838252</v>
+        <v>1.016348980840993</v>
       </c>
       <c r="E11">
-        <v>1.001347264459915</v>
+        <v>1.001671371144692</v>
       </c>
       <c r="F11">
-        <v>1.021098494613133</v>
+        <v>1.021207755580825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041664598664912</v>
+        <v>1.041780462760779</v>
       </c>
       <c r="J11">
-        <v>1.022104341712316</v>
+        <v>1.022453612839085</v>
       </c>
       <c r="K11">
-        <v>1.030892299590598</v>
+        <v>1.030969027825377</v>
       </c>
       <c r="L11">
-        <v>1.016243817993108</v>
+        <v>1.016561836536203</v>
       </c>
       <c r="M11">
-        <v>1.035633198838695</v>
+        <v>1.035740508653437</v>
       </c>
       <c r="N11">
-        <v>1.011280148653775</v>
+        <v>1.013594084493732</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037262030129657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037346910912869</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020699742642381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9917986338828573</v>
+        <v>0.9921899561478215</v>
       </c>
       <c r="D12">
-        <v>1.016009761742384</v>
+        <v>1.016111212950197</v>
       </c>
       <c r="E12">
-        <v>1.000918726705842</v>
+        <v>1.00126517828742</v>
       </c>
       <c r="F12">
-        <v>1.021146663052282</v>
+        <v>1.021274403846914</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041637948277596</v>
+        <v>1.041765860236684</v>
       </c>
       <c r="J12">
-        <v>1.021954192183952</v>
+        <v>1.022328568865589</v>
       </c>
       <c r="K12">
-        <v>1.030836535903945</v>
+        <v>1.030936122684114</v>
       </c>
       <c r="L12">
-        <v>1.016028346503397</v>
+        <v>1.016368179552483</v>
       </c>
       <c r="M12">
-        <v>1.035879638933648</v>
+        <v>1.03600506285949</v>
       </c>
       <c r="N12">
-        <v>1.011251449829543</v>
+        <v>1.013677171582282</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037783687859526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03788286303799</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020724094375497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9922196418080532</v>
+        <v>0.9925703802987658</v>
       </c>
       <c r="D13">
-        <v>1.016422109198581</v>
+        <v>1.016475468314881</v>
       </c>
       <c r="E13">
-        <v>1.001268919170853</v>
+        <v>1.001579006321358</v>
       </c>
       <c r="F13">
-        <v>1.021838731398836</v>
+        <v>1.021930804659707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041831695064577</v>
+        <v>1.041933498810311</v>
       </c>
       <c r="J13">
-        <v>1.0222631294544</v>
+        <v>1.022598752893539</v>
       </c>
       <c r="K13">
-        <v>1.031198307274052</v>
+        <v>1.031250690031391</v>
       </c>
       <c r="L13">
-        <v>1.016327896653704</v>
+        <v>1.016632084993296</v>
       </c>
       <c r="M13">
-        <v>1.036516493015569</v>
+        <v>1.036606904751214</v>
       </c>
       <c r="N13">
-        <v>1.011375216508759</v>
+        <v>1.0137406578255</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038564111177077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038635583531892</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020812339305516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929818011852564</v>
+        <v>0.9932744750627176</v>
       </c>
       <c r="D14">
-        <v>1.017013707163037</v>
+        <v>1.017001819051297</v>
       </c>
       <c r="E14">
-        <v>1.001865627448252</v>
+        <v>1.002124421029669</v>
       </c>
       <c r="F14">
-        <v>1.022612248952544</v>
+        <v>1.022655456471472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042065761986531</v>
+        <v>1.042132536088538</v>
       </c>
       <c r="J14">
-        <v>1.022685564322151</v>
+        <v>1.022965803414107</v>
       </c>
       <c r="K14">
-        <v>1.031638305324627</v>
+        <v>1.031626632043653</v>
       </c>
       <c r="L14">
-        <v>1.016769369119471</v>
+        <v>1.017023301207239</v>
       </c>
       <c r="M14">
-        <v>1.037136396050835</v>
+        <v>1.037178833876416</v>
       </c>
       <c r="N14">
-        <v>1.011530266205096</v>
+        <v>1.01377693777492</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03922753713786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039261080586801</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020902597327637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933948248636929</v>
+        <v>0.9936591612171607</v>
       </c>
       <c r="D15">
-        <v>1.017309524952305</v>
+        <v>1.017266307603154</v>
       </c>
       <c r="E15">
-        <v>1.002182919733454</v>
+        <v>1.002416859969217</v>
       </c>
       <c r="F15">
-        <v>1.022954868975794</v>
+        <v>1.022974535535068</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042173425486703</v>
+        <v>1.042223543062038</v>
       </c>
       <c r="J15">
-        <v>1.022892222635906</v>
+        <v>1.023145424986672</v>
       </c>
       <c r="K15">
-        <v>1.031842071766189</v>
+        <v>1.031799629510671</v>
       </c>
       <c r="L15">
-        <v>1.016992087079817</v>
+        <v>1.017221666313203</v>
       </c>
       <c r="M15">
-        <v>1.037386898003622</v>
+        <v>1.037406216906307</v>
       </c>
       <c r="N15">
-        <v>1.011602537699569</v>
+        <v>1.013785348410057</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039463083180276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039478352707818</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020940223818542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.995590996368087</v>
+        <v>0.9957248289824453</v>
       </c>
       <c r="D16">
-        <v>1.018787408164677</v>
+        <v>1.018599299820366</v>
       </c>
       <c r="E16">
-        <v>1.003847565134681</v>
+        <v>1.003967846386231</v>
       </c>
       <c r="F16">
-        <v>1.024479108547922</v>
+        <v>1.024389983777158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042668359051246</v>
+        <v>1.04264276726235</v>
       </c>
       <c r="J16">
-        <v>1.023903293226261</v>
+        <v>1.024031767319334</v>
       </c>
       <c r="K16">
-        <v>1.032789831150731</v>
+        <v>1.032604950441573</v>
       </c>
       <c r="L16">
-        <v>1.018111221762049</v>
+        <v>1.018229359511598</v>
       </c>
       <c r="M16">
-        <v>1.038384594401335</v>
+        <v>1.03829697683015</v>
       </c>
       <c r="N16">
-        <v>1.011938599729511</v>
+        <v>1.013813679366929</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040212928432852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.040143674140801</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021096505698466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9968786811041039</v>
+        <v>0.9969500725125272</v>
       </c>
       <c r="D17">
-        <v>1.019612517719383</v>
+        <v>1.019352791179303</v>
       </c>
       <c r="E17">
-        <v>1.004815080926111</v>
+        <v>1.004881314014137</v>
       </c>
       <c r="F17">
-        <v>1.025238971011907</v>
+        <v>1.025096419939317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042923369461015</v>
+        <v>1.042861327977207</v>
       </c>
       <c r="J17">
-        <v>1.02445733769002</v>
+        <v>1.024525961583499</v>
       </c>
       <c r="K17">
-        <v>1.033285190398737</v>
+        <v>1.033029796317297</v>
       </c>
       <c r="L17">
-        <v>1.018739207793355</v>
+        <v>1.018804294029333</v>
       </c>
       <c r="M17">
-        <v>1.038818482748002</v>
+        <v>1.038678275747561</v>
       </c>
       <c r="N17">
-        <v>1.01211494157168</v>
+        <v>1.013844933330424</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040426793819794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.040315960985029</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021169528906759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9974995740015793</v>
+        <v>0.9975530614429119</v>
       </c>
       <c r="D18">
-        <v>1.019935331206952</v>
+        <v>1.01965507564924</v>
       </c>
       <c r="E18">
-        <v>1.005264430565572</v>
+        <v>1.0053156506144</v>
       </c>
       <c r="F18">
-        <v>1.025365287065104</v>
+        <v>1.025207338022576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042988114390221</v>
+        <v>1.042916432134471</v>
       </c>
       <c r="J18">
-        <v>1.024657378372324</v>
+        <v>1.02470883096451</v>
       </c>
       <c r="K18">
-        <v>1.033418604090479</v>
+        <v>1.033142947609566</v>
       </c>
       <c r="L18">
-        <v>1.018992907625884</v>
+        <v>1.019043255525226</v>
       </c>
       <c r="M18">
-        <v>1.038760089864343</v>
+        <v>1.038604697289319</v>
       </c>
       <c r="N18">
-        <v>1.012165708439957</v>
+        <v>1.013841255752768</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040142813063352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.040019950486895</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021171011721907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9975098710203356</v>
+        <v>0.9975808937743127</v>
       </c>
       <c r="D19">
-        <v>1.019795010023311</v>
+        <v>1.019537134290487</v>
       </c>
       <c r="E19">
-        <v>1.005238358674627</v>
+        <v>1.005305589599769</v>
       </c>
       <c r="F19">
-        <v>1.024903965270453</v>
+        <v>1.024762231313479</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042878854290199</v>
+        <v>1.042819573591215</v>
       </c>
       <c r="J19">
-        <v>1.02453210409944</v>
+        <v>1.024600440857012</v>
       </c>
       <c r="K19">
-        <v>1.03321782549415</v>
+        <v>1.032964160357693</v>
       </c>
       <c r="L19">
-        <v>1.018903218154951</v>
+        <v>1.018969310389716</v>
       </c>
       <c r="M19">
-        <v>1.038243922240315</v>
+        <v>1.038104472666773</v>
       </c>
       <c r="N19">
-        <v>1.012102713871498</v>
+        <v>1.013785917419024</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039408924567455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.039298631379312</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021105900942699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9958208240508873</v>
+        <v>0.9960047372041616</v>
       </c>
       <c r="D20">
-        <v>1.018380290232763</v>
+        <v>1.018261000290156</v>
       </c>
       <c r="E20">
-        <v>1.003891423964699</v>
+        <v>1.004058255898595</v>
       </c>
       <c r="F20">
-        <v>1.022863739152448</v>
+        <v>1.022823947437314</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042296154134861</v>
+        <v>1.04230896446581</v>
       </c>
       <c r="J20">
-        <v>1.023513801943834</v>
+        <v>1.023690543040638</v>
       </c>
       <c r="K20">
-        <v>1.032107464692812</v>
+        <v>1.031990176144204</v>
       </c>
       <c r="L20">
-        <v>1.017866190768741</v>
+        <v>1.018030119158834</v>
       </c>
       <c r="M20">
-        <v>1.036516128084532</v>
+        <v>1.036476996396756</v>
       </c>
       <c r="N20">
-        <v>1.011728157716055</v>
+        <v>1.013580931371407</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037513385955918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.037482417258862</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020861508270724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9917090409238075</v>
+        <v>0.9921589253108086</v>
       </c>
       <c r="D21">
-        <v>1.015542753297833</v>
+        <v>1.015716551456169</v>
       </c>
       <c r="E21">
-        <v>1.000755992451626</v>
+        <v>1.001156122560882</v>
       </c>
       <c r="F21">
-        <v>1.019817946201073</v>
+        <v>1.019999236613681</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041315962480202</v>
+        <v>1.041484492050509</v>
       </c>
       <c r="J21">
-        <v>1.021557540704088</v>
+        <v>1.021988176520773</v>
       </c>
       <c r="K21">
-        <v>1.030235527523881</v>
+        <v>1.030406163566331</v>
       </c>
       <c r="L21">
-        <v>1.015723056465357</v>
+        <v>1.016115624899909</v>
       </c>
       <c r="M21">
-        <v>1.034433343323587</v>
+        <v>1.034611371174771</v>
       </c>
       <c r="N21">
-        <v>1.011065637792415</v>
+        <v>1.013538098912996</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035824056620659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.035964954636317</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020541173306268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9891006075759373</v>
+        <v>0.9897175937580845</v>
       </c>
       <c r="D22">
-        <v>1.013760931395922</v>
+        <v>1.014118844337091</v>
       </c>
       <c r="E22">
-        <v>0.9987772699680487</v>
+        <v>0.9993238745736944</v>
       </c>
       <c r="F22">
-        <v>1.017935808670338</v>
+        <v>1.018256101745751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040696473070969</v>
+        <v>1.040962722915497</v>
       </c>
       <c r="J22">
-        <v>1.020326753661802</v>
+        <v>1.020915821368357</v>
       </c>
       <c r="K22">
-        <v>1.029064623317458</v>
+        <v>1.029415698724768</v>
       </c>
       <c r="L22">
-        <v>1.014372988357253</v>
+        <v>1.014908737550539</v>
       </c>
       <c r="M22">
-        <v>1.033160135002422</v>
+        <v>1.033474374343753</v>
       </c>
       <c r="N22">
-        <v>1.010650221230734</v>
+        <v>1.013506978391497</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03481639029023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.035065091597501</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020341061027161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9904878765415147</v>
+        <v>0.9910054596742907</v>
       </c>
       <c r="D23">
-        <v>1.014708074598847</v>
+        <v>1.014960013452086</v>
       </c>
       <c r="E23">
-        <v>0.9998289224404908</v>
+        <v>1.00028819401151</v>
       </c>
       <c r="F23">
-        <v>1.018935982060191</v>
+        <v>1.019175665386559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041026623171549</v>
+        <v>1.041235692519612</v>
       </c>
       <c r="J23">
-        <v>1.020981434420599</v>
+        <v>1.021476277073866</v>
       </c>
       <c r="K23">
-        <v>1.029687488074374</v>
+        <v>1.029934735855723</v>
       </c>
       <c r="L23">
-        <v>1.01509087907756</v>
+        <v>1.015541264706428</v>
       </c>
       <c r="M23">
-        <v>1.033837072680627</v>
+        <v>1.03407234118525</v>
       </c>
       <c r="N23">
-        <v>1.010871194865638</v>
+        <v>1.013482008229781</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035352145140668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.035538345705675</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020445249404763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.995851727178397</v>
+        <v>0.9960362651019943</v>
       </c>
       <c r="D24">
-        <v>1.018380858871314</v>
+        <v>1.018262653887869</v>
       </c>
       <c r="E24">
-        <v>1.003910442239125</v>
+        <v>1.00407789889605</v>
       </c>
       <c r="F24">
-        <v>1.022820852456362</v>
+        <v>1.022781813464866</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042288037000282</v>
+        <v>1.042301486740555</v>
       </c>
       <c r="J24">
-        <v>1.023510401906182</v>
+        <v>1.023687754164913</v>
       </c>
       <c r="K24">
-        <v>1.032092695995011</v>
+        <v>1.0319764716535</v>
       </c>
       <c r="L24">
-        <v>1.017869232382688</v>
+        <v>1.018033778521829</v>
       </c>
       <c r="M24">
-        <v>1.036458719886033</v>
+        <v>1.03642032767622</v>
       </c>
       <c r="N24">
-        <v>1.011724673110949</v>
+        <v>1.013574562699221</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037427015050623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.037396630059763</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020854862457516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001885061627842</v>
+        <v>1.001838029243208</v>
       </c>
       <c r="D25">
-        <v>1.022532144894533</v>
+        <v>1.022105372485944</v>
       </c>
       <c r="E25">
-        <v>1.008531305220892</v>
+        <v>1.008497397678098</v>
       </c>
       <c r="F25">
-        <v>1.027225156992873</v>
+        <v>1.026962539011865</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043674733365048</v>
+        <v>1.043537072179724</v>
       </c>
       <c r="J25">
-        <v>1.026349152042131</v>
+        <v>1.026303694309297</v>
       </c>
       <c r="K25">
-        <v>1.034790465380091</v>
+        <v>1.034369955848305</v>
       </c>
       <c r="L25">
-        <v>1.02099861167045</v>
+        <v>1.020965219230947</v>
       </c>
       <c r="M25">
-        <v>1.039415042797804</v>
+        <v>1.03915623343191</v>
       </c>
       <c r="N25">
-        <v>1.012682386921664</v>
+        <v>1.014228247032492</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039766752621361</v>
+        <v>1.039561922123086</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021335733629251</v>
       </c>
     </row>
   </sheetData>
